--- a/assets/DB Structure for Health Care Providers.xlsx
+++ b/assets/DB Structure for Health Care Providers.xlsx
@@ -7,8 +7,7 @@
     <workbookView windowWidth="26300" windowHeight="10780"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="2" r:id="rId1"/>
-    <sheet name="Lookup" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Enterby_auto from login</t>
   </si>
@@ -75,7 +74,7 @@
     <t>closing time</t>
   </si>
   <si>
-    <t>is_24hr</t>
+    <t>Organization One</t>
   </si>
   <si>
     <t>Hospital</t>
@@ -84,48 +83,43 @@
     <t>Government</t>
   </si>
   <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Suite#0341</t>
+  </si>
+  <si>
+    <t>organization1@gmail.com</t>
+  </si>
+  <si>
+    <t>https://health-care-facilities.vercel.app/</t>
+  </si>
+  <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>Pharmacy</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Chemist</t>
-  </si>
-  <si>
-    <t>Charity</t>
-  </si>
-  <si>
-    <t>Maternity</t>
-  </si>
-  <si>
-    <t>Private</t>
-  </si>
-  <si>
-    <t>other</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="25">
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -133,43 +127,15 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -177,14 +143,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -192,7 +158,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -200,7 +166,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -208,7 +174,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -216,7 +182,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -224,14 +190,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -239,7 +205,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -247,7 +213,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -255,14 +221,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -270,47 +236,47 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,6 +285,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -504,12 +476,49 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -612,158 +621,167 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1039,81 +1057,117 @@
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O2" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:O2" etc:filterBottomFollowUsedRange="0"/>
-  <tableColumns count="15">
-    <tableColumn id="2" name="Enterby_auto from login"/>
-    <tableColumn id="16" name="organisation_name"/>
-    <tableColumn id="3" name="facility_type"/>
-    <tableColumn id="14" name="ownership"/>
-    <tableColumn id="7" name="country"/>
-    <tableColumn id="6" name="state"/>
-    <tableColumn id="5" name="city"/>
-    <tableColumn id="4" name="address"/>
-    <tableColumn id="8" name="email_address"/>
-    <tableColumn id="9" name="phone_number"/>
-    <tableColumn id="10" name="google_maps_link"/>
-    <tableColumn id="11" name="is_24_hours"/>
-    <tableColumn id="15" name="is_A&amp;E"/>
-    <tableColumn id="12" name="opening time"/>
-    <tableColumn id="13" name="closing time"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStylePreset3_Accent1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1260,198 +1314,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <sheetPr/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="18.7857142857143" customWidth="1"/>
-    <col min="3" max="4" width="13.2232142857143" customWidth="1"/>
-    <col min="9" max="9" width="15.4375" customWidth="1"/>
-    <col min="10" max="10" width="17.7767857142857" customWidth="1"/>
-    <col min="11" max="11" width="18.4375" customWidth="1"/>
-    <col min="12" max="13" width="13.4375" customWidth="1"/>
-    <col min="14" max="14" width="14.1071428571429" customWidth="1"/>
-    <col min="15" max="15" width="13.3303571428571" customWidth="1"/>
+    <col min="1" max="1" width="20.1875" customWidth="1"/>
+    <col min="2" max="2" width="16.0625" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="11.3125" customWidth="1"/>
+    <col min="5" max="5" width="12.4375" customWidth="1"/>
+    <col min="6" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="6.8125" customWidth="1"/>
+    <col min="8" max="8" width="10.5625" customWidth="1"/>
+    <col min="9" max="9" width="22.8125" customWidth="1"/>
+    <col min="10" max="10" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="34.5625" customWidth="1"/>
+    <col min="12" max="12" width="10.25" customWidth="1"/>
+    <col min="13" max="13" width="6.5" customWidth="1"/>
+    <col min="14" max="14" width="11.125" customWidth="1"/>
+    <col min="15" max="15" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:17">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="2:15">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2">
+        <v>12225453366</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.979166666666667</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:G2">
-      <formula1>Lookup!$B$2:$B$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
-      <formula1>Lookup!$C$2:$C$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
-      <formula1>Lookup!$D$2:$D$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
-      <formula1>Lookup!$A$2:$A$5</formula1>
-    </dataValidation>
-  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" display="organization1@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:O6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="5"/>
-  <cols>
-    <col min="8" max="8" width="15.4375" customWidth="1"/>
-    <col min="9" max="9" width="17.7767857142857" customWidth="1"/>
-    <col min="10" max="10" width="15.7767857142857" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:15">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/assets/DB Structure for Health Care Providers.xlsx
+++ b/assets/DB Structure for Health Care Providers.xlsx
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
-  <si>
-    <t>Enterby_auto from login</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>organisation_name</t>
   </si>
@@ -50,6 +47,9 @@
     <t>city</t>
   </si>
   <si>
+    <t>zip_code</t>
+  </si>
+  <si>
     <t>address</t>
   </si>
   <si>
@@ -74,7 +74,7 @@
     <t>closing time</t>
   </si>
   <si>
-    <t>Organization One</t>
+    <t>Churchill Hospital</t>
   </si>
   <si>
     <t>Hospital</t>
@@ -83,25 +83,40 @@
     <t>Government</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Suite#0341</t>
-  </si>
-  <si>
-    <t>organization1@gmail.com</t>
-  </si>
-  <si>
-    <t>https://health-care-facilities.vercel.app/</t>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>Headington</t>
+  </si>
+  <si>
+    <t>Old Rd</t>
+  </si>
+  <si>
+    <t>churchill@hospital.com</t>
+  </si>
+  <si>
+    <t>44 300 304 7777</t>
+  </si>
+  <si>
+    <t>https://g.co/kgs/cyR7TFs</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Churchill Hospital-2</t>
+  </si>
+  <si>
+    <t>Private</t>
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -476,25 +491,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -645,7 +647,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,34 +659,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -769,16 +771,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1315,21 +1313,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="20.1875" customWidth="1"/>
-    <col min="2" max="2" width="16.0625" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="11.3125" customWidth="1"/>
-    <col min="5" max="5" width="12.4375" customWidth="1"/>
-    <col min="6" max="6" width="8.625" customWidth="1"/>
-    <col min="7" max="7" width="6.8125" customWidth="1"/>
+    <col min="1" max="1" width="16.0625" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="11.3125" customWidth="1"/>
+    <col min="4" max="4" width="12.4375" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="7" width="6.8125" customWidth="1"/>
     <col min="8" max="8" width="10.5625" customWidth="1"/>
     <col min="9" max="9" width="22.8125" customWidth="1"/>
     <col min="10" max="10" width="12.875" customWidth="1"/>
@@ -1344,97 +1341,138 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:15">
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
         <v>20</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="J2">
-        <v>12225453366</v>
+      <c r="J2" t="s">
+        <v>23</v>
       </c>
       <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0.979166666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K3" t="s">
         <v>24</v>
       </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="O2" s="5">
-        <v>0.979166666666667</v>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="organization1@gmail.com"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
